--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Cxadr-Cxadr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Cxadr-Cxadr.xlsx
@@ -531,16 +531,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.065860333333333</v>
+        <v>3.584831333333333</v>
       </c>
       <c r="H2">
-        <v>6.197581</v>
+        <v>10.754494</v>
       </c>
       <c r="I2">
-        <v>0.546612493277129</v>
+        <v>0.6765928440098584</v>
       </c>
       <c r="J2">
-        <v>0.546612493277129</v>
+        <v>0.6765928440098584</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -549,28 +549,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.065860333333333</v>
+        <v>3.584831333333333</v>
       </c>
       <c r="N2">
-        <v>6.197581</v>
+        <v>10.754494</v>
       </c>
       <c r="O2">
-        <v>0.546612493277129</v>
+        <v>0.6765928440098584</v>
       </c>
       <c r="P2">
-        <v>0.546612493277129</v>
+        <v>0.6765928440098584</v>
       </c>
       <c r="Q2">
-        <v>4.26777891684011</v>
+        <v>12.85101568844844</v>
       </c>
       <c r="R2">
-        <v>38.410010251561</v>
+        <v>115.659141196036</v>
       </c>
       <c r="S2">
-        <v>0.2987852178066394</v>
+        <v>0.4577778765653486</v>
       </c>
       <c r="T2">
-        <v>0.2987852178066394</v>
+        <v>0.4577778765653486</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,16 +593,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.065860333333333</v>
+        <v>3.584831333333333</v>
       </c>
       <c r="H3">
-        <v>6.197581</v>
+        <v>10.754494</v>
       </c>
       <c r="I3">
-        <v>0.546612493277129</v>
+        <v>0.6765928440098584</v>
       </c>
       <c r="J3">
-        <v>0.546612493277129</v>
+        <v>0.6765928440098584</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,22 +617,22 @@
         <v>2.686063</v>
       </c>
       <c r="O3">
-        <v>0.2369046235183445</v>
+        <v>0.1689871233699747</v>
       </c>
       <c r="P3">
-        <v>0.2369046235183445</v>
+        <v>0.1689871233699747</v>
       </c>
       <c r="Q3">
-        <v>1.849677001511444</v>
+        <v>3.209694268569111</v>
       </c>
       <c r="R3">
-        <v>16.647093013603</v>
+        <v>28.887248417122</v>
       </c>
       <c r="S3">
-        <v>0.1294950269302419</v>
+        <v>0.114335478401936</v>
       </c>
       <c r="T3">
-        <v>0.1294950269302419</v>
+        <v>0.114335478401936</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,16 +655,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.065860333333333</v>
+        <v>3.584831333333333</v>
       </c>
       <c r="H4">
-        <v>6.197581</v>
+        <v>10.754494</v>
       </c>
       <c r="I4">
-        <v>0.546612493277129</v>
+        <v>0.6765928440098584</v>
       </c>
       <c r="J4">
-        <v>0.546612493277129</v>
+        <v>0.6765928440098584</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,22 +679,22 @@
         <v>2.454518</v>
       </c>
       <c r="O4">
-        <v>0.2164828832045265</v>
+        <v>0.154420032620167</v>
       </c>
       <c r="P4">
-        <v>0.2164828832045265</v>
+        <v>0.154420032620167</v>
       </c>
       <c r="Q4">
-        <v>1.690230457884222</v>
+        <v>2.933011011543556</v>
       </c>
       <c r="R4">
-        <v>15.212074120958</v>
+        <v>26.397099103892</v>
       </c>
       <c r="S4">
-        <v>0.1183322485402478</v>
+        <v>0.1044794890425739</v>
       </c>
       <c r="T4">
-        <v>0.1183322485402477</v>
+        <v>0.1044794890425739</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,10 +723,10 @@
         <v>2.686063</v>
       </c>
       <c r="I5">
-        <v>0.2369046235183445</v>
+        <v>0.1689871233699747</v>
       </c>
       <c r="J5">
-        <v>0.2369046235183445</v>
+        <v>0.1689871233699747</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -735,28 +735,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.065860333333333</v>
+        <v>3.584831333333333</v>
       </c>
       <c r="N5">
-        <v>6.197581</v>
+        <v>10.754494</v>
       </c>
       <c r="O5">
-        <v>0.546612493277129</v>
+        <v>0.6765928440098584</v>
       </c>
       <c r="P5">
-        <v>0.546612493277129</v>
+        <v>0.6765928440098584</v>
       </c>
       <c r="Q5">
-        <v>1.849677001511444</v>
+        <v>3.209694268569111</v>
       </c>
       <c r="R5">
-        <v>16.647093013603</v>
+        <v>28.887248417122</v>
       </c>
       <c r="S5">
-        <v>0.1294950269302419</v>
+        <v>0.114335478401936</v>
       </c>
       <c r="T5">
-        <v>0.1294950269302419</v>
+        <v>0.114335478401936</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,10 +785,10 @@
         <v>2.686063</v>
       </c>
       <c r="I6">
-        <v>0.2369046235183445</v>
+        <v>0.1689871233699747</v>
       </c>
       <c r="J6">
-        <v>0.2369046235183445</v>
+        <v>0.1689871233699747</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,10 +803,10 @@
         <v>2.686063</v>
       </c>
       <c r="O6">
-        <v>0.2369046235183445</v>
+        <v>0.1689871233699747</v>
       </c>
       <c r="P6">
-        <v>0.2369046235183445</v>
+        <v>0.1689871233699747</v>
       </c>
       <c r="Q6">
         <v>0.8016593822187776</v>
@@ -815,10 +815,10 @@
         <v>7.214934439968999</v>
       </c>
       <c r="S6">
-        <v>0.05612380064436854</v>
+        <v>0.02855664786485903</v>
       </c>
       <c r="T6">
-        <v>0.05612380064436854</v>
+        <v>0.02855664786485904</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,10 +847,10 @@
         <v>2.686063</v>
       </c>
       <c r="I7">
-        <v>0.2369046235183445</v>
+        <v>0.1689871233699747</v>
       </c>
       <c r="J7">
-        <v>0.2369046235183445</v>
+        <v>0.1689871233699747</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,10 +865,10 @@
         <v>2.454518</v>
       </c>
       <c r="O7">
-        <v>0.2164828832045265</v>
+        <v>0.154420032620167</v>
       </c>
       <c r="P7">
-        <v>0.2164828832045265</v>
+        <v>0.154420032620167</v>
       </c>
       <c r="Q7">
         <v>0.7325544425148889</v>
@@ -877,10 +877,10 @@
         <v>6.592989982634</v>
       </c>
       <c r="S7">
-        <v>0.05128579594373409</v>
+        <v>0.02609499710317967</v>
       </c>
       <c r="T7">
-        <v>0.05128579594373409</v>
+        <v>0.02609499710317967</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,10 +909,10 @@
         <v>2.454518</v>
       </c>
       <c r="I8">
-        <v>0.2164828832045265</v>
+        <v>0.154420032620167</v>
       </c>
       <c r="J8">
-        <v>0.2164828832045265</v>
+        <v>0.154420032620167</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -921,28 +921,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.065860333333333</v>
+        <v>3.584831333333333</v>
       </c>
       <c r="N8">
-        <v>6.197581</v>
+        <v>10.754494</v>
       </c>
       <c r="O8">
-        <v>0.546612493277129</v>
+        <v>0.6765928440098584</v>
       </c>
       <c r="P8">
-        <v>0.546612493277129</v>
+        <v>0.6765928440098584</v>
       </c>
       <c r="Q8">
-        <v>1.690230457884222</v>
+        <v>2.933011011543556</v>
       </c>
       <c r="R8">
-        <v>15.212074120958</v>
+        <v>26.397099103892</v>
       </c>
       <c r="S8">
-        <v>0.1183322485402478</v>
+        <v>0.1044794890425739</v>
       </c>
       <c r="T8">
-        <v>0.1183322485402477</v>
+        <v>0.1044794890425739</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,10 +971,10 @@
         <v>2.454518</v>
       </c>
       <c r="I9">
-        <v>0.2164828832045265</v>
+        <v>0.154420032620167</v>
       </c>
       <c r="J9">
-        <v>0.2164828832045265</v>
+        <v>0.154420032620167</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,10 +989,10 @@
         <v>2.686063</v>
       </c>
       <c r="O9">
-        <v>0.2369046235183445</v>
+        <v>0.1689871233699747</v>
       </c>
       <c r="P9">
-        <v>0.2369046235183445</v>
+        <v>0.1689871233699747</v>
       </c>
       <c r="Q9">
         <v>0.7325544425148889</v>
@@ -1001,10 +1001,10 @@
         <v>6.592989982634</v>
       </c>
       <c r="S9">
-        <v>0.05128579594373409</v>
+        <v>0.02609499710317967</v>
       </c>
       <c r="T9">
-        <v>0.05128579594373409</v>
+        <v>0.02609499710317967</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,10 +1033,10 @@
         <v>2.454518</v>
       </c>
       <c r="I10">
-        <v>0.2164828832045265</v>
+        <v>0.154420032620167</v>
       </c>
       <c r="J10">
-        <v>0.2164828832045265</v>
+        <v>0.154420032620167</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,10 +1051,10 @@
         <v>2.454518</v>
       </c>
       <c r="O10">
-        <v>0.2164828832045265</v>
+        <v>0.154420032620167</v>
       </c>
       <c r="P10">
-        <v>0.2164828832045265</v>
+        <v>0.154420032620167</v>
       </c>
       <c r="Q10">
         <v>0.6694065124804446</v>
@@ -1063,10 +1063,10 @@
         <v>6.024658612324001</v>
       </c>
       <c r="S10">
-        <v>0.04686483872054466</v>
+        <v>0.02384554647441343</v>
       </c>
       <c r="T10">
-        <v>0.04686483872054464</v>
+        <v>0.02384554647441343</v>
       </c>
     </row>
   </sheetData>
